--- a/datosPruebas.xlsx
+++ b/datosPruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TutorialesPropios\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461BFAF2-7F65-4443-8FE7-8497A14781DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8307CE-E7EE-4B93-BDEB-FD48B65F98DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="2783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="2785">
   <si>
     <t>Nombre</t>
   </si>
@@ -8381,6 +8381,12 @@
   </si>
   <si>
     <t>union apellidos nombre</t>
+  </si>
+  <si>
+    <t>Busqueda por apellido</t>
+  </si>
+  <si>
+    <t>bailey</t>
   </si>
 </sst>
 </file>
@@ -8527,7 +8533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8707,8 +8713,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -8823,6 +8835,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8870,11 +8944,17 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -9281,7 +9361,7 @@
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10490,7 +10570,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2747</v>
       </c>
@@ -10535,8 +10615,15 @@
       <c r="G28" s="2" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>2784</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2525</v>
       </c>
@@ -10558,6 +10645,14 @@
       <c r="G29" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="I29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f>+VLOOKUP(J28,Tabla1[[#All],[Apellidos]:[Importe]],2,FALSE)</f>
+        <v>sapien@aol.edu</v>
+      </c>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
